--- a/Income/SGEN_inc.xlsx
+++ b/Income/SGEN_inc.xlsx
@@ -1861,10 +1861,8 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B14" s="0" t="n">
+        <v>0.8891</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0.8998</v>
@@ -1990,10 +1988,8 @@
           <t>EBIT Margin</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>0.2582</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0.2743</v>
@@ -2119,10 +2115,8 @@
           <t>EBT margin</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>0.2915</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.2831</v>
@@ -2248,10 +2242,8 @@
           <t>Net Profit Margin</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>0.2906</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.2822</v>
@@ -2377,10 +2369,8 @@
           <t>Free Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>0.3271</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0.361</v>
@@ -3395,10 +3385,8 @@
           <t>EBITDA Margin</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B26" s="0" t="n">
+        <v>0.2933</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0.3033</v>
@@ -3524,10 +3512,8 @@
           <t>Operating Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B27" s="0" t="n">
+        <v>0.3556</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0.3988</v>
